--- a/data/trans_dic/P17A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P17A-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2194420233826773</v>
+        <v>0.2190316873634222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2292099822700411</v>
+        <v>0.2296725015098489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2228137577399584</v>
+        <v>0.2201612889880143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1885168349759181</v>
+        <v>0.1865164844179678</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3249474959734178</v>
+        <v>0.3227172214155068</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3373996930981575</v>
+        <v>0.3382858550201018</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3166916741147907</v>
+        <v>0.3194206613984982</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2760993094129959</v>
+        <v>0.2817591083308146</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2939676708024866</v>
+        <v>0.2909121524593105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2937243739516902</v>
+        <v>0.293757267071686</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2767894035970828</v>
+        <v>0.2788859119153166</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2496306018565067</v>
+        <v>0.2495821080318509</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2921879054074558</v>
+        <v>0.2902630713489517</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2883864295654893</v>
+        <v>0.2847087966984514</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2742586728980838</v>
+        <v>0.2730804235523403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2702655791582422</v>
+        <v>0.2710754271954524</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3898768202320305</v>
+        <v>0.3860191478693464</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3969114338577051</v>
+        <v>0.3948344590742943</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3732064663459868</v>
+        <v>0.373117304605747</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3441167390740117</v>
+        <v>0.3453420111848756</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3397019150287667</v>
+        <v>0.3413289266198805</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3341262793979781</v>
+        <v>0.3345185727483234</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.316720586809584</v>
+        <v>0.3182834188790301</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3014541347114285</v>
+        <v>0.2992279573497662</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1957221020767292</v>
+        <v>0.1932084449464514</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1954961477194453</v>
+        <v>0.1949450820711804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2217362415327682</v>
+        <v>0.2186111460665976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1584528921611133</v>
+        <v>0.157284812954616</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2866685577736977</v>
+        <v>0.2872804908666575</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3120408861732301</v>
+        <v>0.3121924124338061</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3033380483147416</v>
+        <v>0.304639417328173</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.233307676009746</v>
+        <v>0.2335029220949251</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2479265747881687</v>
+        <v>0.2481778277377998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2649118716724898</v>
+        <v>0.2655582234873197</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.270299466836414</v>
+        <v>0.2712977692771786</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2043973992747668</v>
+        <v>0.2052588561083186</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2448484750071708</v>
+        <v>0.2459162317457797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2512337199326419</v>
+        <v>0.2507548034691492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2776816183941275</v>
+        <v>0.2793397076546296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2107809083028679</v>
+        <v>0.2113921013406703</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.341958407421623</v>
+        <v>0.3446663765879212</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3691343520900097</v>
+        <v>0.370758120918629</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3621229992815461</v>
+        <v>0.3658111932118105</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2756765197294382</v>
+        <v>0.2777922007064113</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2884301641708968</v>
+        <v>0.2879597161631937</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3052336025232154</v>
+        <v>0.303937008483505</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3145862548530603</v>
+        <v>0.3129368188559556</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2388661598541293</v>
+        <v>0.2375060484739727</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1434988872725881</v>
+        <v>0.1465462281327769</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1910853579067935</v>
+        <v>0.1881467956397594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2416577069772236</v>
+        <v>0.240450283422251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1624130063423189</v>
+        <v>0.1630933397514601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2445570445865297</v>
+        <v>0.2423116328686594</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2649146114176031</v>
+        <v>0.2671944093174224</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2961925970892586</v>
+        <v>0.3000832974214708</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2027261272902506</v>
+        <v>0.2023753734928463</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1978639034975574</v>
+        <v>0.1970770589660534</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2336853549495897</v>
+        <v>0.2345203965989612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2760668863971276</v>
+        <v>0.2768916814366412</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1903120864160202</v>
+        <v>0.189745943193322</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1899493544439204</v>
+        <v>0.1892777252420419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2476563811758408</v>
+        <v>0.2501247042354822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3034909546251607</v>
+        <v>0.3026635639100155</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2106091324579513</v>
+        <v>0.213419293098556</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3000937162091862</v>
+        <v>0.298025914580623</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3290133452688043</v>
+        <v>0.3325723772571073</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3668178798852641</v>
+        <v>0.3669134565361111</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2488368509347949</v>
+        <v>0.2472776439570211</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2353242868571713</v>
+        <v>0.2350662546254329</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2765060227442229</v>
+        <v>0.2760170954472315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3223007865095961</v>
+        <v>0.3244307418887759</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2231471929728812</v>
+        <v>0.2231169463377063</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2728408866695237</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2278664918737492</v>
+        <v>0.2278664918737491</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2027334896372587</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1304609299582439</v>
+        <v>0.1296400898508749</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.172427157748013</v>
+        <v>0.1718527383007031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2022527043353434</v>
+        <v>0.2001122728616798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1691280636966682</v>
+        <v>0.1715314633498521</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2092827440073995</v>
+        <v>0.210615144976418</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2083987317851748</v>
+        <v>0.2080694158366986</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2322546945184248</v>
+        <v>0.2335471126720524</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.204309194902463</v>
+        <v>0.2027707267202681</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1742343559020879</v>
+        <v>0.1741758366240615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1990279381524984</v>
+        <v>0.1977062553824722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2287610913559516</v>
+        <v>0.2275093386079147</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1934764892356834</v>
+        <v>0.1940579796292067</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.199792369718637</v>
+        <v>0.1969829435457572</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2536201128331926</v>
+        <v>0.2538772681989521</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.279630427905696</v>
+        <v>0.2785107615819306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2286196495979783</v>
+        <v>0.2291566207667682</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2992273360038769</v>
+        <v>0.2983735110289527</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2927234668872167</v>
+        <v>0.2923809618369714</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3163830685217776</v>
+        <v>0.3191954652529857</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2548091363044362</v>
+        <v>0.253281247035322</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2335500506183924</v>
+        <v>0.2332346110269985</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2578926406611286</v>
+        <v>0.2554318427564767</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2847339420456331</v>
+        <v>0.2881159798420174</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2304774679733722</v>
+        <v>0.2328644808675905</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2905908236193249</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2227429996289649</v>
+        <v>0.2227429996289648</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1859590039995373</v>
+        <v>0.1842493178578812</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2130708618244274</v>
+        <v>0.2158701206162315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2359205427795844</v>
+        <v>0.2364880791640448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.18138342936211</v>
+        <v>0.1816930307366918</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2908363744065282</v>
+        <v>0.2912131727162652</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3084770063704921</v>
+        <v>0.310932833865136</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3135019293158438</v>
+        <v>0.3121590709404381</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2364728809176684</v>
+        <v>0.2368828914554618</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2429102141108403</v>
+        <v>0.2438417415102264</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2683478785381648</v>
+        <v>0.266878505803354</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2796348393743585</v>
+        <v>0.2792109767406108</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2128018504647405</v>
+        <v>0.2135327845313796</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2141894855318981</v>
+        <v>0.212869805089698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2452266317755522</v>
+        <v>0.2438320159480543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2657462395823892</v>
+        <v>0.2663592895097306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2082557031884526</v>
+        <v>0.2094678969770642</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3250646530083093</v>
+        <v>0.3235434480584861</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3417026603827503</v>
+        <v>0.3432910264197065</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3466787972157861</v>
+        <v>0.3443807244716074</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2617491784066003</v>
+        <v>0.2619372717393333</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2648002206287978</v>
+        <v>0.2653078808576997</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2896462598586557</v>
+        <v>0.2893244980923675</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3017566146482962</v>
+        <v>0.3015670951772457</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.231321087347138</v>
+        <v>0.2321163757350562</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>128185</v>
+        <v>127945</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>238342</v>
+        <v>238823</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>251333</v>
+        <v>248341</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93850</v>
+        <v>92854</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>299385</v>
+        <v>297330</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>376644</v>
+        <v>377633</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>398892</v>
+        <v>402330</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>171701</v>
+        <v>175221</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>442561</v>
+        <v>437961</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>633315</v>
+        <v>633386</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>660851</v>
+        <v>665856</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>279515</v>
+        <v>279461</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>170679</v>
+        <v>169555</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>299876</v>
+        <v>296052</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>309363</v>
+        <v>308034</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>134547</v>
+        <v>134951</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>359206</v>
+        <v>355652</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>443077</v>
+        <v>440759</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>470076</v>
+        <v>469964</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>214000</v>
+        <v>214762</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>511412</v>
+        <v>513862</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>720427</v>
+        <v>721273</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>756189</v>
+        <v>759920</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>337543</v>
+        <v>335050</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>210628</v>
+        <v>207923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>189864</v>
+        <v>189329</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>201519</v>
+        <v>198679</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>152031</v>
+        <v>150910</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>302873</v>
+        <v>303519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>340860</v>
+        <v>341026</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>305302</v>
+        <v>306612</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>260238</v>
+        <v>260455</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>528749</v>
+        <v>529285</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>546658</v>
+        <v>547992</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>517705</v>
+        <v>519617</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>424103</v>
+        <v>425891</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>263496</v>
+        <v>264645</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>243995</v>
+        <v>243530</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>252364</v>
+        <v>253871</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>202238</v>
+        <v>202824</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>361288</v>
+        <v>364149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>403227</v>
+        <v>405001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>364468</v>
+        <v>368180</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>307497</v>
+        <v>309857</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>615130</v>
+        <v>614127</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>629864</v>
+        <v>627189</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>602527</v>
+        <v>599368</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>495622</v>
+        <v>492800</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>160947</v>
+        <v>164365</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>168740</v>
+        <v>166145</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>199068</v>
+        <v>198073</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>169962</v>
+        <v>170674</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>243075</v>
+        <v>240843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>230780</v>
+        <v>232766</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>228382</v>
+        <v>231382</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>212185</v>
+        <v>211817</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>418588</v>
+        <v>416923</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>409932</v>
+        <v>411397</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>440276</v>
+        <v>441592</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>398349</v>
+        <v>397164</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>213046</v>
+        <v>212293</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>218695</v>
+        <v>220875</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>250003</v>
+        <v>249322</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>220398</v>
+        <v>223339</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>298275</v>
+        <v>296220</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>286619</v>
+        <v>289720</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>282838</v>
+        <v>282912</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>260447</v>
+        <v>258815</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>497837</v>
+        <v>497291</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>485049</v>
+        <v>484191</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>514011</v>
+        <v>517408</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>467077</v>
+        <v>467014</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58220</v>
+        <v>57854</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>86580</v>
+        <v>86292</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>102482</v>
+        <v>101397</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>165057</v>
+        <v>167403</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71398</v>
+        <v>71853</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>94161</v>
+        <v>94012</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>113735</v>
+        <v>114368</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>185553</v>
+        <v>184155</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>137196</v>
+        <v>137150</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>189864</v>
+        <v>188603</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>227937</v>
+        <v>226690</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>364534</v>
+        <v>365629</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89161</v>
+        <v>87907</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127349</v>
+        <v>127478</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>141689</v>
+        <v>141122</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>223117</v>
+        <v>223641</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>102084</v>
+        <v>101793</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>132262</v>
+        <v>132107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>154932</v>
+        <v>156309</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>231416</v>
+        <v>230029</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>183903</v>
+        <v>183655</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>246018</v>
+        <v>243671</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>283708</v>
+        <v>287078</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>434248</v>
+        <v>438746</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>600305</v>
+        <v>594786</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>723634</v>
+        <v>733141</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>794411</v>
+        <v>796322</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>631162</v>
+        <v>632239</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>963528</v>
+        <v>964776</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1089433</v>
+        <v>1098106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1105656</v>
+        <v>1100920</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>873095</v>
+        <v>874609</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1588904</v>
+        <v>1594997</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1859078</v>
+        <v>1848898</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1927824</v>
+        <v>1924901</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1526187</v>
+        <v>1531429</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>691438</v>
+        <v>687178</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>832842</v>
+        <v>828106</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>894843</v>
+        <v>896907</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>724670</v>
+        <v>728888</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1076925</v>
+        <v>1071885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1206774</v>
+        <v>1212384</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1222664</v>
+        <v>1214559</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>966420</v>
+        <v>967114</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1732089</v>
+        <v>1735410</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2006630</v>
+        <v>2004401</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2080333</v>
+        <v>2079026</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1659005</v>
+        <v>1664708</v>
       </c>
     </row>
     <row r="24">
